--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43970,6 +43970,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44007,6 +44007,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44044,6 +44044,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44081,6 +44081,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44118,6 +44118,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44155,6 +44155,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44192,6 +44192,41 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>8200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44227,6 +44227,41 @@
         <v>8200</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>309700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44262,6 +44262,43 @@
         <v>309700</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44299,6 +44299,41 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44334,6 +44334,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>14800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44369,6 +44369,41 @@
         <v>14800</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>68200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44404,6 +44404,78 @@
         <v>68200</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44476,6 +44476,76 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44546,6 +44546,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44581,6 +44581,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44616,6 +44616,41 @@
         <v>145000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44651,6 +44651,41 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44686,6 +44686,78 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44758,6 +44758,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44793,6 +44793,43 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2456"/>
+  <dimension ref="A1:I2457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87880,6 +87880,43 @@
         </is>
       </c>
     </row>
+    <row r="2457">
+      <c r="A2457" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2457" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2457" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2457" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2457" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2457"/>
+  <dimension ref="A1:I2458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87917,6 +87917,43 @@
         </is>
       </c>
     </row>
+    <row r="2458">
+      <c r="A2458" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2458" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2458" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2458" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2458" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2458"/>
+  <dimension ref="A1:I2459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87954,6 +87954,43 @@
         </is>
       </c>
     </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2459" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2459" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2459" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2459" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2459"/>
+  <dimension ref="A1:I2460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87991,6 +87991,43 @@
         </is>
       </c>
     </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2460" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2460" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2460" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2460" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2460" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2460"/>
+  <dimension ref="A1:I2461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88028,6 +88028,43 @@
         </is>
       </c>
     </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2461" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2461" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2461" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2461" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2461" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2461"/>
+  <dimension ref="A1:I2462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88065,6 +88065,43 @@
         </is>
       </c>
     </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2462" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2462" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2462" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2462" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2462"/>
+  <dimension ref="A1:I2463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88102,6 +88102,43 @@
         </is>
       </c>
     </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2463" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2463" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2463"/>
+  <dimension ref="A1:I2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88139,6 +88139,43 @@
         </is>
       </c>
     </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2464" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2464" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2464"/>
+  <dimension ref="A1:I2465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88176,6 +88176,43 @@
         </is>
       </c>
     </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2465" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2465" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2465"/>
+  <dimension ref="A1:I2466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88213,6 +88213,43 @@
         </is>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2466" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2466" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2466"/>
+  <dimension ref="A1:I2467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88250,6 +88250,43 @@
         </is>
       </c>
     </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H2467" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2467" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7722.xlsx
+++ b/data/7722.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2467"/>
+  <dimension ref="A1:I2468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88287,6 +88287,41 @@
         </is>
       </c>
     </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>ASIABRN</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2468" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
